--- a/会社管理システムの基本設計.xlsx
+++ b/会社管理システムの基本設計.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18160"/>
+    <workbookView windowWidth="18288" windowHeight="9324" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
+    <sheet name="請求検索画面" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,6 +27,74 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>「基本設計書」変更履歴</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>変更日付</t>
+  </si>
+  <si>
+    <t>更新者</t>
+  </si>
+  <si>
+    <t>頁</t>
+  </si>
+  <si>
+    <t>修正箇所</t>
+  </si>
+  <si>
+    <r>
+      <t>修正理由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>┌</t>
+    </r>
+  </si>
+  <si>
+    <t>修正内容</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>袁</t>
+  </si>
+  <si>
+    <t>請求検索画面</t>
+  </si>
+  <si>
+    <t>1、「請求書の確認」確認ボダン 
+2、画面右上登録名 
+3、画面右上縦三点リーダー</t>
+  </si>
+  <si>
+    <t>変更</t>
+  </si>
+  <si>
+    <t>1、ボダンをリンクに変更
+2、testerを登録名に変更
+3、表示しないように変更</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
@@ -34,11 +103,19 @@
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -46,7 +123,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -54,14 +131,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -69,7 +146,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -77,7 +154,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -85,7 +162,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -93,7 +170,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -101,14 +178,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -116,7 +193,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -124,7 +201,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -132,14 +209,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -147,52 +224,64 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -381,12 +470,64 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -507,16 +648,13 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,37 +663,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,128 +708,182 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -938,8 +1130,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1421765" y="587375"/>
-          <a:ext cx="12053570" cy="10102850"/>
+          <a:off x="1234440" y="526415"/>
+          <a:ext cx="10183495" cy="8639810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -977,15 +1169,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>277495</xdr:colOff>
+      <xdr:colOff>292735</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>76835</xdr:rowOff>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:colOff>218440</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -994,8 +1186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2472055" y="5197475"/>
-          <a:ext cx="8703945" cy="4350385"/>
+          <a:off x="2144395" y="4481195"/>
+          <a:ext cx="7332345" cy="3740785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1036,15 +1228,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>710565</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>191135</xdr:rowOff>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>319405</xdr:colOff>
+      <xdr:colOff>212725</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1053,8 +1245,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1442085" y="617855"/>
-          <a:ext cx="12044680" cy="810895"/>
+          <a:off x="1127760" y="579120"/>
+          <a:ext cx="10194925" cy="697230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1220,8 +1412,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1430020" y="9874885"/>
-          <a:ext cx="12045950" cy="811530"/>
+          <a:off x="1234440" y="8472805"/>
+          <a:ext cx="10184130" cy="689610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1382,8 +1574,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2726055" y="6305550"/>
-          <a:ext cx="1515745" cy="371475"/>
+          <a:off x="2383155" y="5421630"/>
+          <a:ext cx="1287145" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1455,8 +1647,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4231005" y="6305550"/>
-          <a:ext cx="1515745" cy="371475"/>
+          <a:off x="3659505" y="5421630"/>
+          <a:ext cx="1278255" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1633,8 +1825,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2640330" y="5385435"/>
-          <a:ext cx="1198245" cy="301625"/>
+          <a:off x="2297430" y="4623435"/>
+          <a:ext cx="969645" cy="271145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1703,8 +1895,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2766060" y="5959475"/>
-          <a:ext cx="1176655" cy="302260"/>
+          <a:off x="2423160" y="5120640"/>
+          <a:ext cx="948055" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1872,8 +2064,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4291965" y="5963920"/>
-          <a:ext cx="1337945" cy="306705"/>
+          <a:off x="3703320" y="5120640"/>
+          <a:ext cx="1126490" cy="266065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2041,8 +2233,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5817235" y="5969635"/>
-          <a:ext cx="1337945" cy="306705"/>
+          <a:off x="4937760" y="5120640"/>
+          <a:ext cx="1188720" cy="271780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2192,16 +2384,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>665480</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>149860</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>718185</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>62230</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>93980</xdr:rowOff>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2210,8 +2402,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7249160" y="6337300"/>
-          <a:ext cx="1515745" cy="370840"/>
+          <a:off x="6179820" y="5430520"/>
+          <a:ext cx="1289050" cy="309880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2382,8 +2574,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7268210" y="6007735"/>
-          <a:ext cx="1485900" cy="309245"/>
+          <a:off x="6172200" y="5154295"/>
+          <a:ext cx="1234440" cy="278765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2533,76 +2725,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>267335</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>604520</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>10795</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9045575" y="6347460"/>
-          <a:ext cx="1068705" cy="277495"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>請求書の確認</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>614045</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>128905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>51435</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>73660</xdr:rowOff>
     </xdr:to>
@@ -2613,8 +2743,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5734685" y="6316345"/>
-          <a:ext cx="1515745" cy="371475"/>
+          <a:off x="4934585" y="5432425"/>
+          <a:ext cx="1289050" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2793,8 +2923,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2726690" y="6732905"/>
-          <a:ext cx="1515745" cy="371475"/>
+          <a:off x="2383790" y="5788025"/>
+          <a:ext cx="1287145" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2965,8 +3095,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4239895" y="6722110"/>
-          <a:ext cx="1515745" cy="370840"/>
+          <a:off x="3668395" y="5777230"/>
+          <a:ext cx="1269365" cy="309880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3125,16 +3255,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>664210</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>716915</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>71755</xdr:rowOff>
+      <xdr:rowOff>56515</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3143,8 +3273,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7247890" y="6741795"/>
-          <a:ext cx="1515745" cy="370840"/>
+          <a:off x="6187440" y="5781675"/>
+          <a:ext cx="1289050" cy="309880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3297,14 +3427,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>623570</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>54610</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>51435</xdr:rowOff>
     </xdr:to>
@@ -3315,8 +3445,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5744210" y="6720840"/>
-          <a:ext cx="1515745" cy="371475"/>
+          <a:off x="4937760" y="5775960"/>
+          <a:ext cx="1289050" cy="310515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3469,167 +3599,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>256540</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>181610</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>605155</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rounded Rectangle 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9034780" y="6795770"/>
-          <a:ext cx="1080135" cy="289560"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>請求書の確認</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>478155</xdr:colOff>
       <xdr:row>20</xdr:row>
@@ -3648,8 +3617,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9987915" y="4283710"/>
-          <a:ext cx="1078230" cy="362585"/>
+          <a:off x="8502015" y="3674110"/>
+          <a:ext cx="849630" cy="332105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3809,8 +3778,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3677920" y="2576830"/>
-          <a:ext cx="1176655" cy="302260"/>
+          <a:off x="3106420" y="2211070"/>
+          <a:ext cx="1062355" cy="271780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3978,8 +3947,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2396490" y="1671320"/>
-          <a:ext cx="1463040" cy="301625"/>
+          <a:off x="2053590" y="1457960"/>
+          <a:ext cx="1234440" cy="240665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4147,8 +4116,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4821555" y="2559050"/>
-          <a:ext cx="1337945" cy="306705"/>
+          <a:off x="4135755" y="2194560"/>
+          <a:ext cx="1109345" cy="274955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4311,8 +4280,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3665220" y="3004185"/>
-          <a:ext cx="1052830" cy="307975"/>
+          <a:off x="3093720" y="2577465"/>
+          <a:ext cx="938530" cy="277495"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4480,8 +4449,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4832350" y="3028950"/>
-          <a:ext cx="1337945" cy="306705"/>
+          <a:off x="4146550" y="2602230"/>
+          <a:ext cx="1109345" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4644,8 +4613,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3674745" y="3462655"/>
-          <a:ext cx="1020445" cy="330835"/>
+          <a:off x="3103245" y="2974975"/>
+          <a:ext cx="906145" cy="300355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4813,8 +4782,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4811395" y="3496945"/>
-          <a:ext cx="1358900" cy="306705"/>
+          <a:off x="4125595" y="3009265"/>
+          <a:ext cx="1130300" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4977,8 +4946,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6207760" y="3524250"/>
-          <a:ext cx="4146550" cy="330835"/>
+          <a:off x="5293360" y="3036570"/>
+          <a:ext cx="3460750" cy="269875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5166,8 +5135,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3102610" y="3930015"/>
-          <a:ext cx="1539875" cy="329565"/>
+          <a:off x="2645410" y="3381375"/>
+          <a:ext cx="1311275" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5341,8 +5310,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4812030" y="3868420"/>
-          <a:ext cx="1358900" cy="306705"/>
+          <a:off x="4126230" y="3319780"/>
+          <a:ext cx="1130300" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5505,8 +5474,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6208395" y="3927475"/>
-          <a:ext cx="4146550" cy="330835"/>
+          <a:off x="5293995" y="3378835"/>
+          <a:ext cx="3460750" cy="278765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5694,8 +5663,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3528695" y="2160905"/>
-          <a:ext cx="1176655" cy="302260"/>
+          <a:off x="3071495" y="1856105"/>
+          <a:ext cx="948055" cy="271780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5863,8 +5832,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4821555" y="2153285"/>
-          <a:ext cx="1337945" cy="306705"/>
+          <a:off x="4135755" y="1848485"/>
+          <a:ext cx="1109345" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6029,8 +5998,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6159500" y="1943735"/>
-          <a:ext cx="934085" cy="356870"/>
+          <a:off x="5245100" y="1669415"/>
+          <a:ext cx="819785" cy="326390"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6079,8 +6048,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7093585" y="1739265"/>
-          <a:ext cx="1144270" cy="330835"/>
+          <a:off x="6064885" y="1495425"/>
+          <a:ext cx="915670" cy="300355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6153,8 +6122,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6159500" y="1898015"/>
-          <a:ext cx="934085" cy="814705"/>
+          <a:off x="5245100" y="1645920"/>
+          <a:ext cx="819785" cy="701040"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6205,8 +6174,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6171565" y="1898015"/>
-          <a:ext cx="922020" cy="1300480"/>
+          <a:off x="5257165" y="1645920"/>
+          <a:ext cx="807720" cy="1097280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6255,8 +6224,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6987540" y="2964180"/>
-          <a:ext cx="1144270" cy="330835"/>
+          <a:off x="5958840" y="2560320"/>
+          <a:ext cx="915670" cy="277495"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6428,8 +6397,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6170930" y="3129280"/>
-          <a:ext cx="816610" cy="886460"/>
+          <a:off x="5256530" y="2702560"/>
+          <a:ext cx="702310" cy="764540"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6481,8 +6450,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6207760" y="3129280"/>
-          <a:ext cx="779780" cy="560070"/>
+          <a:off x="5293360" y="2702560"/>
+          <a:ext cx="665480" cy="468630"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6509,6 +6478,601 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123190</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文本框 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7475220" y="5440680"/>
+          <a:ext cx="1289050" cy="309880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-CN" sz="1100" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>請求書の確認</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="zh-CN" sz="1100" u="sng">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>138430</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="文本框 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7490460" y="5760720"/>
+          <a:ext cx="1289050" cy="309880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-CN" sz="1100" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>請求書の確認</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="zh-CN" sz="1100" u="sng">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>118745</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Text Box 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7482840" y="5143500"/>
+          <a:ext cx="1234440" cy="278765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>請求書の確認</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="文本框 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10447020" y="678180"/>
+          <a:ext cx="845820" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>wangzheng</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Arrow Connector 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11292840" y="236220"/>
+          <a:ext cx="906780" cy="480060"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121285</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="矩形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12199620" y="137160"/>
+          <a:ext cx="1638300" cy="532765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>名前をクリックし、個人情報画面に遷移する</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6764,13 +7328,271 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A2:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="12.8888888888889" customWidth="1"/>
+    <col min="3" max="4" width="10.7777777777778"/>
+    <col min="5" max="5" width="15.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="28.4444444444444" customWidth="1"/>
+    <col min="11" max="11" width="34.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="55" customHeight="1" spans="1:12">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8">
+        <v>45597</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:K14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
